--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redes-04\Documents\Solicitud de correo electronico institucional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0282AECE-D901-481A-8BED-D9C76D67661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0EA9EE-1140-410E-975A-5843B2D7E29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,30 +17,19 @@
     <sheet name="ROL" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$H$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SOLICITUD DE CUENTAS DE CORREO.</t>
   </si>
@@ -72,18 +61,6 @@
     <t>CLAVE CURP</t>
   </si>
   <si>
-    <t>NUMERO DE EMPLEADO O NUMERO DE BOLETA SEGÚN SEA EL CASO</t>
-  </si>
-  <si>
-    <t>EXTENSION (SOLO EMPLEADOS DE CONTAR CON ELLA)</t>
-  </si>
-  <si>
-    <t>CORREO PERSONAL</t>
-  </si>
-  <si>
-    <t>CORREO INSTITUCIONAL</t>
-  </si>
-  <si>
     <t>CELULAR ANTERIOR</t>
   </si>
   <si>
@@ -109,13 +86,16 @@
   </si>
   <si>
     <t>HONORARIOS</t>
+  </si>
+  <si>
+    <t>FORMATO B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,42 +117,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -319,11 +277,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,35 +297,14 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,99 +331,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,16 +373,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>312420</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -570,16 +421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>317549</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -618,9 +469,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="312420"/>
@@ -661,9 +512,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="317549"/>
@@ -706,9 +557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -746,9 +597,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,9 +632,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,9 +684,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,41 +880,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
     <col min="8" max="9" width="54.5703125" style="6" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1040,19 +924,22 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="55.5" customHeight="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="101.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1074,105 +961,237 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="N7" s="7"/>
-      <c r="Q7" s="9"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="9"/>
-      <c r="N8" s="7"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="60" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1181,55 +1200,19 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:D1048576 B1:D3 D4 B10:C10">
-    <cfRule type="duplicateValues" dxfId="14" priority="6313"/>
+  <conditionalFormatting sqref="B24:D1048576 B1:D3 D4">
+    <cfRule type="duplicateValues" dxfId="2" priority="6313"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7 G5:G7 G9 D9:D10">
-    <cfRule type="duplicateValues" dxfId="13" priority="6348"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6349"/>
+  <conditionalFormatting sqref="D1:D4 D24:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="6333"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 G8">
-    <cfRule type="duplicateValues" dxfId="11" priority="6338"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="6339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D1048576 D1:D4">
-    <cfRule type="duplicateValues" dxfId="9" priority="6333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="6336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I8 I9 I5">
-    <cfRule type="duplicateValues" dxfId="5" priority="6357"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6358"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K8 K9 K5">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="D24:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="6336"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{A88A4408-726A-4FFB-B346-104C292E3910}">
-          <x14:formula1>
-            <xm:f>ROL!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1241,44 +1224,44 @@
       <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1288,12 +1271,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="88341f18-133c-494b-aa7b-816ea377ce3a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d76a1602-49b7-42db-b669-1a3cf8282f69">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,24 +1483,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="88341f18-133c-494b-aa7b-816ea377ce3a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d76a1602-49b7-42db-b669-1a3cf8282f69">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE72B43-615C-45CC-8D73-17854FCAC874}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88341f18-133c-494b-aa7b-816ea377ce3a"/>
+    <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D4E9990-5039-4D9E-8E30-4AD9EF639186}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D4E9990-5039-4D9E-8E30-4AD9EF639186}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
+    <ds:schemaRef ds:uri="88341f18-133c-494b-aa7b-816ea377ce3a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE72B43-615C-45CC-8D73-17854FCAC874}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0EA9EE-1140-410E-975A-5843B2D7E29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDBB98-09CF-4B03-BAB2-E3DDE6914FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SOLICITUD DE CUENTAS DE CORREO.</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>HONORARIOS</t>
-  </si>
-  <si>
-    <t>FORMATO B</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,14 +140,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -274,6 +265,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -303,9 +305,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -328,6 +327,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,11 +882,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -896,24 +898,24 @@
     <col min="5" max="5" width="37.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="54.5703125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="54.5703125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="16"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -924,22 +926,19 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -962,236 +961,6 @@
         <v>11</v>
       </c>
       <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -1200,14 +969,14 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B24:D1048576 B1:D3 D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="6313"/>
+  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
+    <cfRule type="duplicateValues" dxfId="2" priority="6337"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4 D24:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="6333"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="6341"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="6336"/>
+  <conditionalFormatting sqref="D5:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="6344"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1282,6 +1051,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DBCDF32938E354BA77694BDA40DE133" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79fd5bcefd24cdc90519fc622450b636">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d76a1602-49b7-42db-b669-1a3cf8282f69" xmlns:ns3="88341f18-133c-494b-aa7b-816ea377ce3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a8e919876b27a82e804371b4d87a241" ns2:_="" ns3:_="">
     <xsd:import namespace="d76a1602-49b7-42db-b669-1a3cf8282f69"/>
@@ -1482,15 +1260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE72B43-615C-45CC-8D73-17854FCAC874}">
   <ds:schemaRefs>
@@ -1503,6 +1272,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D4E9990-5039-4D9E-8E30-4AD9EF639186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1519,12 +1296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21224FBD-8C2F-4A8D-9F2F-BC81CE516CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612C30A0-1067-423D-9056-5AD34E180DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26269621-A313-4C5B-BB2D-AF3EA3721747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="ROL" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$G$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato-Cuentas-Inst'!$A$4:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
   </si>
@@ -80,14 +80,17 @@
     <t>NÚMERO DE CELULAR ANTERIOR</t>
   </si>
   <si>
-    <t>FECHA:                          25/04/2024</t>
+    <t>CLAVE CURP</t>
+  </si>
+  <si>
+    <t>FECHA:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,21 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -129,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,21 +156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -252,13 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,31 +271,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -658,11 +665,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,45 +677,51 @@
     <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="28.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="11">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,29 +735,35 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:D1048576 B1:D3 D4">
+  <conditionalFormatting sqref="B5:E1048576 B1:E3 D4">
     <cfRule type="duplicateValues" dxfId="2" priority="5512"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:E3 D5:E1048576 D4">
     <cfRule type="duplicateValues" dxfId="1" priority="5585"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576">
+  <conditionalFormatting sqref="D5:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5588"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
+++ b/CorreosInstitucionales/Server/wwwroot/assets/sol_cambio_celular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Documents\GitHub\CorreosInstitucionales\CorreosInstitucionales\Server\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26269621-A313-4C5B-BB2D-AF3EA3721747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB866A4D-1D13-49BD-8A8B-8B9576375BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato-Cuentas-Inst" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ROL QUE DESEMPEÑA (ALUMNO, DOCENTE, ADMINISTRATIVO, EGRESADO)</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>FECHA:</t>
+  </si>
+  <si>
+    <t>NUMERO DE EMPLEADO O NUMERO DE BOLETA SEGÚN SEA EL CASO</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -665,11 +682,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H2"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,13 +694,15 @@
     <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
-    <col min="4" max="5" width="28.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -692,7 +711,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -709,7 +728,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -721,7 +740,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -738,13 +757,16 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.25">
@@ -757,14 +779,20 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:E1048576 B1:E3 D4">
-    <cfRule type="duplicateValues" dxfId="2" priority="5512"/>
+  <conditionalFormatting sqref="B5:E1048576 B1:E3">
+    <cfRule type="duplicateValues" dxfId="4" priority="5514"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E3 D5:E1048576 D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="5585"/>
+  <conditionalFormatting sqref="D1:E3 D5:E1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5588"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
